--- a/biology/Zoologie/Equus_sivalensis/Equus_sivalensis.xlsx
+++ b/biology/Zoologie/Equus_sivalensis/Equus_sivalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equus sivalensis est une espèce fossile d'équidés découverte dans les collines des Siwaliks. Elle vivait à la fin du Pliocène (Formation Tatrot) et s’est éteinte lors de l’extinction du Quaternaire.
 </t>
@@ -511,14 +523,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Equus sivalensis est décrite en 1849 par les paléontologues écossais Hugh Falconer (1808-1865) et britannique Proby Thomas Cautley (1802-1871)[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections référencées de fossiles de cette espèce Equus sivalensis est de huit[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Equus sivalensis est décrite en 1849 par les paléontologues écossais Hugh Falconer (1808-1865) et britannique Proby Thomas Cautley (1802-1871),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Equus_sivalensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equus_sivalensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections référencées de fossiles de cette espèce Equus sivalensis est de huit : 
 Quaternaire ; deux collections du Pakistan ;
 Pliocène au Pléistocène : une collection en Inde et une au Népal ;
-Pliocène : quatre en Inde[1]découverts à Masol[3] et à Haripur[4].</t>
+Pliocène : quatre en Indedécouverts à Masol et à Haripur.</t>
         </is>
       </c>
     </row>
